--- a/other/test-journals/2023-01-07/Summary.xlsx
+++ b/other/test-journals/2023-01-07/Summary.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\crypto\code\repos\KeyScanner\other\test-journals\2023-01-07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E632B3-D063-47A1-97F2-B28E3A44F916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFE9445-62F0-4274-855B-7415B4911BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="1455" windowWidth="16725" windowHeight="13665" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="1455" windowWidth="16065" windowHeight="15555" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="460x256" sheetId="3" r:id="rId1"/>
     <sheet name="460x256 (Round 2)" sheetId="5" r:id="rId2"/>
+    <sheet name="(L) 460x256" sheetId="7" r:id="rId3"/>
+    <sheet name="(L) 460x256 (Round 2)" sheetId="8" r:id="rId4"/>
+    <sheet name="(XL) 460x256" sheetId="9" r:id="rId5"/>
+    <sheet name="(XL) 460x256 (Round2)" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,19 +41,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="7">
   <si>
-    <t>R</t>
+    <t>Minutes</t>
   </si>
   <si>
-    <t>Minutes</t>
+    <t>R-Parm</t>
+  </si>
+  <si>
+    <t>R-Actual</t>
+  </si>
+  <si>
+    <t>Minutes Normalized</t>
+  </si>
+  <si>
+    <t>Keygen Offset (seconds):</t>
+  </si>
+  <si>
+    <t>Minutes (Normalized)</t>
+  </si>
+  <si>
+    <t>Avgs:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +81,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -83,15 +112,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -370,172 +401,313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0779FCEA-1A46-44A9-847B-BDE28D86D834}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>4.07</v>
+      </c>
+      <c r="D2">
+        <f>C2-((B2*K5)/60)</f>
+        <v>2.6566666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1.24</v>
+      </c>
+      <c r="D3">
+        <f>C3-((B3*K6)/60)</f>
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>7.02</v>
+      </c>
+      <c r="D4">
+        <f>C4-((B4*K5)/60)</f>
+        <v>4.6173333333333328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>4.12</v>
+      </c>
+      <c r="D5">
+        <f>C5-((B5*K5)/60)</f>
+        <v>2.7066666666666666</v>
+      </c>
+      <c r="F5">
+        <f>AVERAGE(C2:C5)</f>
+        <v>4.1124999999999998</v>
+      </c>
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1.25</v>
+      </c>
+      <c r="D6">
+        <f>C6-((B6*K5)/60)</f>
+        <v>0.96733333333333338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>3.01</v>
+      </c>
+      <c r="D7">
+        <f>C7-((B7*K5)/60)</f>
+        <v>2.3033333333333328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>32</v>
+      </c>
+      <c r="B8">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>16</v>
-      </c>
-      <c r="B2">
-        <v>4.07</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>16</v>
-      </c>
-      <c r="B3">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>7.02</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>4.12</v>
-      </c>
-      <c r="D5">
-        <f>AVERAGE(B2:B5)</f>
-        <v>4.1124999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>32</v>
-      </c>
-      <c r="B6">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>32</v>
-      </c>
-      <c r="B7">
-        <v>3.01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>32</v>
-      </c>
-      <c r="B8">
+      <c r="C8">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f>C8-((B8*K5)/60)</f>
+        <v>0.28866666666666663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>32</v>
       </c>
       <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
         <v>3.43</v>
       </c>
       <c r="D9">
-        <f>AVERAGE(B6:B9)</f>
+        <f>C9-((B9*5)/60)</f>
+        <v>2.93</v>
+      </c>
+      <c r="F9">
+        <f>AVERAGE(C6:C9)</f>
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>64</v>
       </c>
       <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>1.35</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f>C10-((B10*K5)/60)</f>
+        <v>1.2086666666666668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>64</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <f>C11-((B11*K5)/60)</f>
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>64</v>
       </c>
       <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
         <v>1.33</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f>C12-((B12*K5)/60)</f>
+        <v>1.1886666666666668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>64</v>
       </c>
       <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
         <v>3.11</v>
       </c>
       <c r="D13">
-        <f>AVERAGE(B10:B13)</f>
+        <f>C13-((B13*K5)/60)</f>
+        <v>2.6859999999999999</v>
+      </c>
+      <c r="F13">
+        <f>AVERAGE(C10:C13)</f>
         <v>1.53</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>128</v>
       </c>
       <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f>C14-((B14*K5)/60)</f>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>128</v>
       </c>
       <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f>C15-((B15*K5)/60)</f>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>128</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
         <v>1.01</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f>C16-((B16*K5)/60)</f>
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>128</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
         <v>0.47</v>
       </c>
       <c r="D17">
-        <f>AVERAGE(B14:B17)</f>
+        <f>C17-((B17*K5)/60)</f>
+        <v>0.47</v>
+      </c>
+      <c r="F17">
+        <f>AVERAGE(C14:C17)</f>
         <v>0.47000000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <f>AVERAGE(C2:C17)</f>
+        <v>2.0356249999999996</v>
+      </c>
       <c r="D20">
         <f>AVERAGE(D2:D17)</f>
+        <v>1.5627083333333329</v>
+      </c>
+      <c r="F20">
+        <f>AVERAGE(F2:F17)</f>
         <v>2.035625</v>
       </c>
     </row>
@@ -547,173 +719,1523 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93CA5378-AB53-4229-B932-B73E290C9DBA}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>4.59</v>
+      </c>
+      <c r="D2">
+        <f>C2-((B2*K5)/60)</f>
+        <v>2.8939999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>4.07</v>
+      </c>
+      <c r="D3">
+        <f>C3-((B3*K5)/60)</f>
+        <v>2.6566666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>3.4</v>
+      </c>
+      <c r="D4">
+        <f>C4-((B4*K5)/60)</f>
+        <v>2.1280000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>7.22</v>
+      </c>
+      <c r="D5">
+        <f>C5-((B5*K5)/60)</f>
+        <v>4.6760000000000002</v>
+      </c>
+      <c r="F5">
+        <f>AVERAGE(C2:C5)</f>
+        <v>4.82</v>
+      </c>
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>16</v>
-      </c>
-      <c r="B2">
-        <v>4.59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>16</v>
-      </c>
-      <c r="B3">
-        <v>4.07</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>7.22</v>
-      </c>
-      <c r="D5">
-        <f>AVERAGE(B2:B5)</f>
-        <v>4.82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>32</v>
-      </c>
-      <c r="B6">
+      <c r="C6">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f>C6-((B6*K5)/60)</f>
+        <v>0.23866666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32</v>
       </c>
       <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
         <v>3.36</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f>C7-((B7*K5)/60)</f>
+        <v>2.5119999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32</v>
       </c>
       <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
         <v>2.31</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f>C8-((B8*K5)/60)</f>
+        <v>1.7446666666666668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>32</v>
       </c>
       <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
         <v>3.45</v>
       </c>
       <c r="D9">
-        <f>AVERAGE(B6:B9)</f>
+        <f>C9-((B9*K5)/60)</f>
+        <v>2.6020000000000003</v>
+      </c>
+      <c r="F9">
+        <f>AVERAGE(C6:C9)</f>
         <v>2.375</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>64</v>
       </c>
       <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f>C10-((B10*K5)/60)</f>
+        <v>0.95866666666666678</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>64</v>
       </c>
       <c r="B11">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <f>C11-((B11*K5)/60)</f>
+        <v>6.0106666666666664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>64</v>
       </c>
       <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
         <v>1.1599999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f>C12-((B12*K5)/60)</f>
+        <v>1.0186666666666666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>64</v>
       </c>
       <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>0.18</v>
       </c>
       <c r="D13">
-        <f>AVERAGE(B10:B13)</f>
+        <f>C13-((B13*K5)/60)</f>
+        <v>0.18</v>
+      </c>
+      <c r="F13">
+        <f>AVERAGE(C10:C13)</f>
         <v>2.36</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>128</v>
       </c>
       <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f>C14-((B14*K5)/60)</f>
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>128</v>
       </c>
       <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f>C15-((B15*K5)/60)</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>128</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f>C16-((B16*K5)/60)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>128</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
         <v>0.48</v>
       </c>
       <c r="D17">
-        <f>AVERAGE(B14:B17)</f>
+        <f>C17-((B17*K5)/60)</f>
+        <v>0.48</v>
+      </c>
+      <c r="F17">
+        <f>AVERAGE(C14:C17)</f>
         <v>0.46499999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <f>AVERAGE(C2:C17)</f>
+        <v>2.504999999999999</v>
+      </c>
       <c r="D20">
         <f>AVERAGE(D2:D17)</f>
+        <v>1.8425000000000002</v>
+      </c>
+      <c r="F20">
+        <f>AVERAGE(F2:F17)</f>
         <v>2.5049999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2AA458-72EF-44FB-8FE8-D4EDF389F542}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>6.07</v>
+      </c>
+      <c r="D2">
+        <f>C2-((B2*K5)/60)</f>
+        <v>2.7080000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>9.41</v>
+      </c>
+      <c r="D3">
+        <f>C3-((B3*K5)/60)</f>
+        <v>4.0868333333333338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>3.1</v>
+      </c>
+      <c r="D4">
+        <f>C4-((B4*K5)/60)</f>
+        <v>1.4190000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>2.1</v>
+      </c>
+      <c r="D5">
+        <f>C5-((B5*K5)/60)</f>
+        <v>0.97933333333333361</v>
+      </c>
+      <c r="F5">
+        <f>AVERAGE(C2:C5)</f>
+        <v>5.1700000000000008</v>
+      </c>
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>16.809999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <f>C6-((B6*K5)/60)</f>
+        <v>5.3578333333333337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1.43</v>
+      </c>
+      <c r="D7">
+        <f>C7-((B7*K5)/60)</f>
+        <v>0.8696666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1.24</v>
+      </c>
+      <c r="D8">
+        <f>C8-((B8*K5)/60)</f>
+        <v>0.67966666666666675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="D9">
+        <f>C9-((B9*K5)/60)</f>
+        <v>1.3395000000000001</v>
+      </c>
+      <c r="F9">
+        <f>AVERAGE(C6:C9)</f>
+        <v>3.4624999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>64</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1.18</v>
+      </c>
+      <c r="D10">
+        <f>C10-((B10*5)/60)</f>
+        <v>1.0966666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>64</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>4.43</v>
+      </c>
+      <c r="D11">
+        <f>C11-((B11*K5)/60)</f>
+        <v>3.309333333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>64</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>3.47</v>
+      </c>
+      <c r="D12">
+        <f>C12-((B12*K5)/60)</f>
+        <v>2.6295000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>64</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.19</v>
+      </c>
+      <c r="D13">
+        <f>C13-((B13*K5)/60)</f>
+        <v>0.19</v>
+      </c>
+      <c r="F13">
+        <f>AVERAGE(C10:C13)</f>
+        <v>2.3174999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>128</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.08</v>
+      </c>
+      <c r="D14">
+        <f>C14-((B14*K5)/60)</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>128</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D15">
+        <f>C15-((B15*K5)/60)</f>
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>128</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.54</v>
+      </c>
+      <c r="D16">
+        <f>C16-((B16*K5)/60)</f>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>128</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.38</v>
+      </c>
+      <c r="D17">
+        <f>C17-((B17*K5)/60)</f>
+        <v>0.38</v>
+      </c>
+      <c r="F17">
+        <f>AVERAGE(C14:C17)</f>
+        <v>0.53249999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <f>AVERAGE(C2:C17)</f>
+        <v>2.870625</v>
+      </c>
+      <c r="D20">
+        <f>AVERAGE(D2:D17)</f>
+        <v>1.6747083333333335</v>
+      </c>
+      <c r="F20">
+        <f>AVERAGE(F2:F17)</f>
+        <v>2.870625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0FCE1F-CFE7-4D9C-816F-05C683B923AA}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>3.3</v>
+      </c>
+      <c r="D2">
+        <f>C2-((B2*K5)/60)</f>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="D3">
+        <f>C3-((B3*K5)/60)</f>
+        <v>8.3699999999999992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>1.32</v>
+      </c>
+      <c r="D4">
+        <f>C4-((B4*K5)/60)</f>
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>2.34</v>
+      </c>
+      <c r="D5">
+        <f>C5-((B5*K5)/60)</f>
+        <v>2.34</v>
+      </c>
+      <c r="F5">
+        <f>AVERAGE(C2:C5)</f>
+        <v>3.8324999999999996</v>
+      </c>
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>16.809999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>0.11</v>
+      </c>
+      <c r="D6">
+        <f>C6-((B6*K5)/60)</f>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>3.27</v>
+      </c>
+      <c r="D7">
+        <f>C7-((B7*K5)/60)</f>
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <f>C8-((B8*K5)/60)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>1.31</v>
+      </c>
+      <c r="D9">
+        <f>C9-((B9*K5)/60)</f>
+        <v>1.31</v>
+      </c>
+      <c r="F9">
+        <f>AVERAGE(C6:C9)</f>
+        <v>2.9224999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>64</v>
+      </c>
+      <c r="C10">
+        <v>4.24</v>
+      </c>
+      <c r="D10">
+        <f>C10-((B10*K5)/60)</f>
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>64</v>
+      </c>
+      <c r="C11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D11">
+        <f>C11-((B11*K5)/60)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>64</v>
+      </c>
+      <c r="C12">
+        <v>2.16</v>
+      </c>
+      <c r="D12">
+        <f>C12-((B12*K5)/60)</f>
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>64</v>
+      </c>
+      <c r="C13">
+        <v>0.26</v>
+      </c>
+      <c r="D13">
+        <f>C13-((B13*K5)/60)</f>
+        <v>0.26</v>
+      </c>
+      <c r="F13">
+        <f>AVERAGE(C10:C13)</f>
+        <v>1.6825000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>128</v>
+      </c>
+      <c r="C14">
+        <v>0.09</v>
+      </c>
+      <c r="D14">
+        <f>C14-((B14*K5)/60)</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>128</v>
+      </c>
+      <c r="C15">
+        <v>0.21</v>
+      </c>
+      <c r="D15">
+        <f>C15-((B15*K5)/60)</f>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>128</v>
+      </c>
+      <c r="C16">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="D16">
+        <f>C16-((B16*K5)/60)</f>
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>128</v>
+      </c>
+      <c r="C17">
+        <v>0.01</v>
+      </c>
+      <c r="D17">
+        <f>C17-((B17*K5)/60)</f>
+        <v>0.01</v>
+      </c>
+      <c r="F17">
+        <f>AVERAGE(C14:C17)</f>
+        <v>0.64249999999999985</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <f>AVERAGE(C2:C17)</f>
+        <v>2.2699999999999996</v>
+      </c>
+      <c r="D20">
+        <f>AVERAGE(D2:D17)</f>
+        <v>2.2699999999999996</v>
+      </c>
+      <c r="F20">
+        <f>AVERAGE(F2:F17)</f>
+        <v>2.27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB1A66E-0C32-45A0-A7B7-DF8C5EB6613E}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" activeCellId="1" sqref="J5 K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.12</v>
+      </c>
+      <c r="D2">
+        <f>C2-((B2*K5)/60)</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.09</v>
+      </c>
+      <c r="D3">
+        <f>C3-((B3*K5)/60)</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3.05</v>
+      </c>
+      <c r="D4">
+        <f>C4-((B4*K5)/60)</f>
+        <v>1.1074999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>8.08</v>
+      </c>
+      <c r="D5">
+        <f>C5-((B5*K5)/60)</f>
+        <v>2.8999999999999995</v>
+      </c>
+      <c r="F5">
+        <f>AVERAGE(C2:C5)</f>
+        <v>2.835</v>
+      </c>
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>38.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1.33</v>
+      </c>
+      <c r="D6">
+        <f>C6-((B6*K5)/60)</f>
+        <v>0.6825</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <f>C7-((B7*K5)/60)</f>
+        <v>5.5250000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>16.37</v>
+      </c>
+      <c r="D8">
+        <f>C8-((B8*K5)/60)</f>
+        <v>7.3050000000000015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.08</v>
+      </c>
+      <c r="D9">
+        <f>C9-((B9*K5)/60)</f>
+        <v>0.08</v>
+      </c>
+      <c r="F9">
+        <f>AVERAGE(C6:C9)</f>
+        <v>7.4450000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>64</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1.57</v>
+      </c>
+      <c r="D10">
+        <f>C10-((B10*5)/60)</f>
+        <v>1.4866666666666668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>64</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2.11</v>
+      </c>
+      <c r="D11">
+        <f>C11-((B11*K5)/60)</f>
+        <v>1.4624999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>64</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>5.09</v>
+      </c>
+      <c r="D12">
+        <f>C12-((B12*K5)/60)</f>
+        <v>3.1475</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>64</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.38</v>
+      </c>
+      <c r="D13">
+        <f>C13-((B13*K5)/60)</f>
+        <v>0.38</v>
+      </c>
+      <c r="F13">
+        <f>AVERAGE(C10:C13)</f>
+        <v>2.2875000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>128</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.33</v>
+      </c>
+      <c r="D14">
+        <f>C14-((B14*K5)/60)</f>
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>128</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.02</v>
+      </c>
+      <c r="D15">
+        <f>C15-((B15*K5)/60)</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>128</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>3.25</v>
+      </c>
+      <c r="D16">
+        <f>C16-((B16*K5)/60)</f>
+        <v>2.6025</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>128</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.24</v>
+      </c>
+      <c r="D17">
+        <f>C17-((B17*K5)/60)</f>
+        <v>0.24</v>
+      </c>
+      <c r="F17">
+        <f>AVERAGE(C14:C17)</f>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <f>AVERAGE(C2:C17)</f>
+        <v>3.3818750000000004</v>
+      </c>
+      <c r="D20">
+        <f>AVERAGE(D2:D17)</f>
+        <v>1.7174479166666665</v>
+      </c>
+      <c r="F20">
+        <f>AVERAGE(F2:F17)</f>
+        <v>3.381875</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C7BAF5-8435-421C-B13E-0246B4E818A6}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>C2-((B2*K5)/60)</f>
+        <v>0.35249999999999992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>58</v>
+      </c>
+      <c r="C3">
+        <v>57.52</v>
+      </c>
+      <c r="D3">
+        <f>C3-((B3*K5)/60)</f>
+        <v>19.965000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <f>C4-((B4*K5)/60)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>6.05</v>
+      </c>
+      <c r="D5">
+        <f>C5-((B5*K5)/60)</f>
+        <v>2.1649999999999996</v>
+      </c>
+      <c r="F5">
+        <f>AVERAGE(C2:C5)</f>
+        <v>18.642500000000002</v>
+      </c>
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>38.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3.5</v>
+      </c>
+      <c r="D6">
+        <f>C6-((B6*K5)/60)</f>
+        <v>1.5574999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>8.27</v>
+      </c>
+      <c r="D7">
+        <f>C7-((B7*K5)/60)</f>
+        <v>3.7374999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D8">
+        <f>C8-((B8*K5)/60)</f>
+        <v>0.50249999999999984</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.19</v>
+      </c>
+      <c r="D9">
+        <f>C9-((B9*K5)/60)</f>
+        <v>0.19</v>
+      </c>
+      <c r="F9">
+        <f>AVERAGE(C6:C9)</f>
+        <v>3.2774999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>64</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.45</v>
+      </c>
+      <c r="D10">
+        <f>C10-((B10*5)/60)</f>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>64</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>3.36</v>
+      </c>
+      <c r="D11">
+        <f>C11-((B11*K5)/60)</f>
+        <v>2.0649999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>64</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.08</v>
+      </c>
+      <c r="D12">
+        <f>C12-((B12*K5)/60)</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>64</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>7.57</v>
+      </c>
+      <c r="D13">
+        <f>C13-((B13*K5)/60)</f>
+        <v>4.3325000000000005</v>
+      </c>
+      <c r="F13">
+        <f>AVERAGE(C10:C13)</f>
+        <v>2.8650000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>128</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1.19</v>
+      </c>
+      <c r="D14">
+        <f>C14-((B14*K5)/60)</f>
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>128</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="D15">
+        <f>C15-((B15*K5)/60)</f>
+        <v>3.8150000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>128</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="D16">
+        <f>C16-((B16*K5)/60)</f>
+        <v>7.5400000000000009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>128</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.24</v>
+      </c>
+      <c r="D17">
+        <f>C17-((B17*K5)/60)</f>
+        <v>0.24</v>
+      </c>
+      <c r="F17">
+        <f>AVERAGE(C14:C17)</f>
+        <v>4.1674999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <f>AVERAGE(C2:C17)</f>
+        <v>7.2381250000000001</v>
+      </c>
+      <c r="D20">
+        <f>AVERAGE(D2:D17)</f>
+        <v>3.6364062499999994</v>
+      </c>
+      <c r="F20">
+        <f>AVERAGE(F2:F17)</f>
+        <v>7.238125000000001</v>
       </c>
     </row>
   </sheetData>

--- a/other/test-journals/2023-01-07/Summary.xlsx
+++ b/other/test-journals/2023-01-07/Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\crypto\code\repos\KeyScanner\other\test-journals\2023-01-07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFE9445-62F0-4274-855B-7415B4911BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245A7002-2ECE-4783-8887-4CE4201E42CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="1455" windowWidth="16065" windowHeight="15555" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18705" yWindow="855" windowWidth="16065" windowHeight="15555" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="460x256" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="(L) 460x256 (Round 2)" sheetId="8" r:id="rId4"/>
     <sheet name="(XL) 460x256" sheetId="9" r:id="rId5"/>
     <sheet name="(XL) 460x256 (Round2)" sheetId="10" r:id="rId6"/>
+    <sheet name="(XXL) 460x256 (2)" sheetId="12" r:id="rId7"/>
+    <sheet name="(XXL) 460x256 (Round 2)" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="7">
   <si>
     <t>Minutes</t>
   </si>
@@ -1934,7 +1936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C7BAF5-8435-421C-B13E-0246B4E818A6}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -2242,4 +2244,252 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF5AFC3-FD33-4D12-8B16-8C12E747AEB9}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>128</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>11.13</v>
+      </c>
+      <c r="D6">
+        <f>C6-((B6*K5)/60)</f>
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>128</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f>C7-((B7*K5)/60)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>128</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.13</v>
+      </c>
+      <c r="D8">
+        <f>C8-((B8*K5)/60)</f>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>128</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.36</v>
+      </c>
+      <c r="D9">
+        <f>C9-((B9*K5)/60)</f>
+        <v>0.36</v>
+      </c>
+      <c r="F9">
+        <f>AVERAGE(C6:C9)</f>
+        <v>3.1550000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <f>AVERAGE(C6:C9)</f>
+        <v>3.1550000000000002</v>
+      </c>
+      <c r="D12">
+        <f>AVERAGE(D6:D9)</f>
+        <v>1.08</v>
+      </c>
+      <c r="F12">
+        <f>AVERAGE(F2:F9)</f>
+        <v>3.1550000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3481BEEA-04CE-47B5-BD0A-BD68A084CC4C}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>128</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.33</v>
+      </c>
+      <c r="D6">
+        <f>C6-((B6*K5)/60)</f>
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>128</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.11</v>
+      </c>
+      <c r="D7">
+        <f>C7-((B7*K5)/60)</f>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>128</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.45</v>
+      </c>
+      <c r="D8">
+        <f>C8-((B8*K5)/60)</f>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>128</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.47</v>
+      </c>
+      <c r="D9">
+        <f>C9-((B9*K5)/60)</f>
+        <v>0.47</v>
+      </c>
+      <c r="F9">
+        <f>AVERAGE(C6:C9)</f>
+        <v>0.33999999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <f>AVERAGE(C6:C9)</f>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="D12">
+        <f>AVERAGE(D6:D9)</f>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="F12">
+        <f>AVERAGE(F2:F9)</f>
+        <v>0.33999999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>